--- a/dados/aula02.xlsx
+++ b/dados/aula02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DIC_unha" sheetId="1" state="visible" r:id="rId2"/>
@@ -378,11 +378,11 @@
   </sheetPr>
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.09"/>
@@ -671,11 +671,11 @@
   </sheetPr>
   <dimension ref="B3:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
   </cols>
@@ -1087,7 +1087,7 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="16" width="11.52"/>
   </cols>
@@ -1278,11 +1278,11 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="16" width="11.52"/>
   </cols>
